--- a/results/consolidated_Simbad_results.xlsx
+++ b/results/consolidated_Simbad_results.xlsx
@@ -445,8 +445,8 @@
     <col width="21" customWidth="1" min="9" max="9"/>
     <col width="19" customWidth="1" min="10" max="10"/>
     <col width="18" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="20" customWidth="1" min="13" max="13"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="21" customWidth="1" min="13" max="13"/>
     <col width="16" customWidth="1" min="14" max="14"/>
     <col width="11" customWidth="1" min="15" max="15"/>
     <col width="20" customWidth="1" min="16" max="16"/>
@@ -650,6 +650,21 @@
           <t>BY*</t>
         </is>
       </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>G5V</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>G5V</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -725,6 +740,21 @@
           <t>PM*</t>
         </is>
       </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>G5</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>G5</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -787,6 +817,16 @@
           <t>PM*</t>
         </is>
       </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>K5</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>K5</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -835,6 +875,16 @@
           <t>Em*</t>
         </is>
       </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>M0</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>M0</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -977,6 +1027,21 @@
           <t>PM*</t>
         </is>
       </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>G5IV-V</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>G5IV-V</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1072,6 +1137,18 @@
       <c r="J9" t="n">
         <v>36.90159886253844</v>
       </c>
+      <c r="K9" t="n">
+        <v>3660</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.04073802778041128</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.501</v>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>M</t>
@@ -1085,6 +1162,21 @@
       <c r="T9" t="inlineStr">
         <is>
           <t>PM*</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>SIMBAD + empirical</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>M1V</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>M1V</t>
         </is>
       </c>
     </row>
@@ -1162,6 +1254,21 @@
           <t>SB*</t>
         </is>
       </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>F5V</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>F5V</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1237,6 +1344,21 @@
           <t>PM*</t>
         </is>
       </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>F6V</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>F6V</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1278,6 +1400,9 @@
       <c r="K12" t="n">
         <v>3089.2524</v>
       </c>
+      <c r="L12" t="n">
+        <v>0.3</v>
+      </c>
       <c r="M12" t="n">
         <v>0.0055671716</v>
       </c>
@@ -1304,6 +1429,21 @@
           <t>PM*</t>
         </is>
       </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>SIMBAD + empirical</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>M3.5Ve</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>M3V and M4V</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1369,6 +1509,21 @@
           <t>PM*</t>
         </is>
       </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>M2.0V</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>M2V</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1431,6 +1586,11 @@
           <t>PM*</t>
         </is>
       </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>dM3.5</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1472,6 +1632,9 @@
       <c r="K15" t="n">
         <v>4176.6665</v>
       </c>
+      <c r="L15" t="n">
+        <v>0.64</v>
+      </c>
       <c r="M15" t="n">
         <v>0.13152601</v>
       </c>
@@ -1493,6 +1656,21 @@
           <t>PM*</t>
         </is>
       </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>SIMBAD + empirical</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>K7V</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>K7V</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1534,6 +1712,9 @@
       <c r="K16" t="n">
         <v>3634.4255</v>
       </c>
+      <c r="L16" t="n">
+        <v>0.57</v>
+      </c>
       <c r="M16" t="n">
         <v>0.055629462</v>
       </c>
@@ -1560,6 +1741,21 @@
           <t>PM*</t>
         </is>
       </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>SIMBAD + empirical</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>M0V</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>M0V</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1630,6 +1826,21 @@
           <t>PM*</t>
         </is>
       </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>K2</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>K2</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1770,6 +1981,21 @@
           <t>PM*</t>
         </is>
       </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>G2V</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>G2V</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1811,9 +2037,15 @@
       <c r="K20" t="n">
         <v>7186</v>
       </c>
+      <c r="L20" t="n">
+        <v>1.61</v>
+      </c>
       <c r="M20" t="n">
         <v>13.7465</v>
       </c>
+      <c r="N20" t="n">
+        <v>1.728</v>
+      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>F</t>
@@ -1832,6 +2064,21 @@
       <c r="T20" t="inlineStr">
         <is>
           <t>PM*</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>SIMBAD + empirical</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>F0V</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>F0V</t>
         </is>
       </c>
     </row>
@@ -1904,6 +2151,21 @@
           <t>PM*</t>
         </is>
       </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>G0</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>G0</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1956,6 +2218,16 @@
           <t>PM*</t>
         </is>
       </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>G0</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>G0</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2031,6 +2303,21 @@
           <t>PM*</t>
         </is>
       </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>K0V</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>K0V</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2058,9 +2345,15 @@
       <c r="K24" t="n">
         <v>6151.76904296875</v>
       </c>
+      <c r="L24" t="n">
+        <v>1.13</v>
+      </c>
       <c r="M24" t="n">
         <v>13.18256759643555</v>
       </c>
+      <c r="N24" t="n">
+        <v>1.167</v>
+      </c>
       <c r="Q24" t="inlineStr">
         <is>
           <t>HD 12558</t>
@@ -2069,6 +2362,21 @@
       <c r="T24" t="inlineStr">
         <is>
           <t>PM*</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>SIMBAD + empirical</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>F9V</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>F9V</t>
         </is>
       </c>
     </row>
@@ -2146,6 +2454,21 @@
           <t>PM*</t>
         </is>
       </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>F8</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>F8</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2269,6 +2592,21 @@
           <t>PM*</t>
         </is>
       </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>F6III-IV</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>F6</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2344,6 +2682,21 @@
           <t>PM*</t>
         </is>
       </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2419,6 +2772,21 @@
           <t>PM*</t>
         </is>
       </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>G8</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>G8</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2556,6 +2924,21 @@
           <t>BY*</t>
         </is>
       </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2631,6 +3014,21 @@
           <t>BY*</t>
         </is>
       </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>F2</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>F2</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2696,6 +3094,21 @@
           <t>PM*</t>
         </is>
       </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>F0V(e)</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>F0V</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2766,6 +3179,21 @@
           <t>*</t>
         </is>
       </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>M0</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>M0</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2828,6 +3256,11 @@
           <t>Or*</t>
         </is>
       </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>dM4.0</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2903,6 +3336,21 @@
           <t>**</t>
         </is>
       </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>G0</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>G0</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2944,6 +3392,9 @@
       <c r="K37" t="n">
         <v>4518.423</v>
       </c>
+      <c r="L37" t="n">
+        <v>0.715</v>
+      </c>
       <c r="M37" t="n">
         <v>0.20035738</v>
       </c>
@@ -2970,6 +3421,21 @@
           <t>PM*</t>
         </is>
       </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>SIMBAD + empirical</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>K4/5V</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>K4V and K5V</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3011,6 +3477,9 @@
       <c r="K38" t="n">
         <v>3577.252</v>
       </c>
+      <c r="L38" t="n">
+        <v>0.405</v>
+      </c>
       <c r="M38" t="n">
         <v>0.03053213</v>
       </c>
@@ -3042,6 +3511,21 @@
           <t>PM*</t>
         </is>
       </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>SIMBAD + empirical</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>M2.5V</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>M2V and M3V</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3112,6 +3596,21 @@
           <t>SB*</t>
         </is>
       </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>G0</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>G0</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3177,6 +3676,21 @@
           <t>Pe*</t>
         </is>
       </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>G2VFe-3</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>G2V</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3249,6 +3763,11 @@
           <t>PM*</t>
         </is>
       </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>dM3</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3329,6 +3848,21 @@
           <t>PM*</t>
         </is>
       </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>K1</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>K1</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3409,6 +3943,21 @@
           <t>BY*</t>
         </is>
       </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>K2</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>K2</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3527,6 +4076,21 @@
           <t>PM*</t>
         </is>
       </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>G8V</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>G8V</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3656,6 +4220,21 @@
           <t>PM*</t>
         </is>
       </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>K2V</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>K2V</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3731,6 +4310,21 @@
           <t>*</t>
         </is>
       </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>G5/6V</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>G5/6V</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3764,6 +4358,18 @@
       <c r="J49" t="n">
         <v>37.43632797156332</v>
       </c>
+      <c r="K49" t="n">
+        <v>3560</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.02884031503126606</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.446</v>
+      </c>
       <c r="P49" t="inlineStr">
         <is>
           <t>M</t>
@@ -3777,6 +4383,21 @@
       <c r="T49" t="inlineStr">
         <is>
           <t>PM*</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>SIMBAD + empirical</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>M2V</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>M2V</t>
         </is>
       </c>
     </row>
@@ -3820,6 +4441,9 @@
       <c r="K50" t="n">
         <v>3166.075</v>
       </c>
+      <c r="L50" t="n">
+        <v>0.44</v>
+      </c>
       <c r="M50" t="n">
         <v>0.027708692</v>
       </c>
@@ -3851,6 +4475,21 @@
           <t>PM*</t>
         </is>
       </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>SIMBAD + empirical</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>M2V</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>M2V</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3884,6 +4523,18 @@
       <c r="J51" t="n">
         <v>20.36530000922021</v>
       </c>
+      <c r="K51" t="n">
+        <v>5100</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.3715352290971726</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.783</v>
+      </c>
       <c r="P51" t="inlineStr">
         <is>
           <t>K</t>
@@ -3892,6 +4543,21 @@
       <c r="T51" t="inlineStr">
         <is>
           <t>PM*</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>SIMBAD + empirical</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>K2V</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>K2V</t>
         </is>
       </c>
     </row>
@@ -3932,6 +4598,9 @@
       <c r="J52" t="n">
         <v>52.50484862746125</v>
       </c>
+      <c r="K52" t="n">
+        <v>3990</v>
+      </c>
       <c r="L52" t="n">
         <v>0.631015</v>
       </c>
@@ -3961,6 +4630,21 @@
           <t>PM*</t>
         </is>
       </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>SIMBAD + empirical</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>K8V</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>K8V</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4026,6 +4710,21 @@
           <t>PM*</t>
         </is>
       </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>K4</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>K4</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4101,6 +4800,21 @@
           <t>PM*</t>
         </is>
       </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>F7/8V</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>F7/8V</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4137,6 +4851,9 @@
       <c r="K55" t="n">
         <v>4245.7266</v>
       </c>
+      <c r="L55" t="n">
+        <v>0.6899999999999999</v>
+      </c>
       <c r="M55" t="n">
         <v>0.16833764</v>
       </c>
@@ -4158,6 +4875,21 @@
           <t>PM*</t>
         </is>
       </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>SIMBAD + empirical</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>K6V</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>K6V</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4223,6 +4955,11 @@
           <t>PM*</t>
         </is>
       </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>dM1.5</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4256,6 +4993,9 @@
       <c r="J57" t="n">
         <v>22.49268936423259</v>
       </c>
+      <c r="K57" t="n">
+        <v>4440</v>
+      </c>
       <c r="L57" t="n">
         <v>0.68593997</v>
       </c>
@@ -4275,6 +5015,21 @@
           <t>SB*</t>
         </is>
       </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>SIMBAD + empirical</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>K5V</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>K5V</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4402,6 +5157,21 @@
           <t>*</t>
         </is>
       </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>K0</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>K0</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4482,6 +5252,21 @@
           <t>PM*</t>
         </is>
       </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>K3</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>K3</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4523,6 +5308,9 @@
       <c r="K61" t="n">
         <v>3189.273</v>
       </c>
+      <c r="L61" t="n">
+        <v>0.37</v>
+      </c>
       <c r="M61" t="n">
         <v>0.016192071</v>
       </c>
@@ -4549,6 +5337,21 @@
           <t>PM*</t>
         </is>
       </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>SIMBAD + empirical</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>M3.0V</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>M3V</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4613,6 +5416,16 @@
           <t>**</t>
         </is>
       </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>K0</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>K0</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4693,6 +5506,21 @@
           <t>PM*</t>
         </is>
       </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>K2IV</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>K2IV</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4731,6 +5559,9 @@
       <c r="J64" t="n">
         <v>44.50529072492505</v>
       </c>
+      <c r="K64" t="n">
+        <v>4045</v>
+      </c>
       <c r="L64" t="n">
         <v>0.6507846</v>
       </c>
@@ -4760,6 +5591,21 @@
           <t>PM*</t>
         </is>
       </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>SIMBAD + empirical</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>K7.5V</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>K7V and K8V</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4798,6 +5644,18 @@
       <c r="J65" t="n">
         <v>31.92621722761648</v>
       </c>
+      <c r="K65" t="n">
+        <v>3320</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.0117312302871696</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.3175</v>
+      </c>
       <c r="P65" t="inlineStr">
         <is>
           <t>M</t>
@@ -4811,6 +5669,21 @@
       <c r="T65" t="inlineStr">
         <is>
           <t>PM*</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>SIMBAD + empirical</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>M3.5V</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>M3V and M4V</t>
         </is>
       </c>
     </row>
@@ -4875,6 +5748,16 @@
           <t>LM*</t>
         </is>
       </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>M2e</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4950,6 +5833,21 @@
           <t>PM*</t>
         </is>
       </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>G5</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>G5</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4988,6 +5886,18 @@
       <c r="J68" t="n">
         <v>25.38772739525393</v>
       </c>
+      <c r="K68" t="n">
+        <v>4100</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.63</v>
+      </c>
       <c r="P68" t="inlineStr">
         <is>
           <t>K</t>
@@ -5001,6 +5911,21 @@
       <c r="T68" t="inlineStr">
         <is>
           <t>PM*</t>
+        </is>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>SIMBAD + empirical</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>K7V</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>K7V</t>
         </is>
       </c>
     </row>
@@ -5078,6 +6003,21 @@
           <t>PM*</t>
         </is>
       </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>K0</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>K0</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5153,6 +6093,21 @@
           <t>SB*</t>
         </is>
       </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>G0</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>G0</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5194,6 +6149,9 @@
       <c r="K71" t="n">
         <v>3670.2495</v>
       </c>
+      <c r="L71" t="n">
+        <v>0.44</v>
+      </c>
       <c r="M71" t="n">
         <v>0.06202481</v>
       </c>
@@ -5225,6 +6183,21 @@
           <t>PM*</t>
         </is>
       </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>SIMBAD + empirical</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>M2V</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>M2V</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -5287,6 +6260,16 @@
           <t>PM*</t>
         </is>
       </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>K5</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>K5</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5352,6 +6335,21 @@
           <t>PM*</t>
         </is>
       </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>K7</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>K7</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5388,6 +6386,9 @@
       <c r="K74" t="n">
         <v>7836</v>
       </c>
+      <c r="L74" t="n">
+        <v>3.38</v>
+      </c>
       <c r="M74" t="n">
         <v>64.601</v>
       </c>
@@ -5409,6 +6410,21 @@
           <t>**</t>
         </is>
       </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>SIMBAD + empirical</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>B8Vn</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>B8V</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -5484,6 +6500,21 @@
           <t>PM*</t>
         </is>
       </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>M0V</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>M0V</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -5579,6 +6610,18 @@
       <c r="J77" t="n">
         <v>30.19690370390601</v>
       </c>
+      <c r="K77" t="n">
+        <v>4300</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.1380384264602885</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.669</v>
+      </c>
       <c r="P77" t="inlineStr">
         <is>
           <t>K</t>
@@ -5592,6 +6635,21 @@
       <c r="T77" t="inlineStr">
         <is>
           <t>PM*</t>
+        </is>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>SIMBAD + empirical</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>K6V</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>K6V</t>
         </is>
       </c>
     </row>
@@ -5669,6 +6727,21 @@
           <t>PM*</t>
         </is>
       </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>F6</t>
+        </is>
+      </c>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>F6</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5744,6 +6817,21 @@
           <t>PM*</t>
         </is>
       </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>K5V</t>
+        </is>
+      </c>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>K5V</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -5782,6 +6870,18 @@
       <c r="J80" t="n">
         <v>31.47743384624868</v>
       </c>
+      <c r="K80" t="n">
+        <v>3755</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0.5349999999999999</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.05496056243615247</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.5445</v>
+      </c>
       <c r="P80" t="inlineStr">
         <is>
           <t>M</t>
@@ -5790,6 +6890,21 @@
       <c r="T80" t="inlineStr">
         <is>
           <t>PM*</t>
+        </is>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>SIMBAD + empirical</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>M0.5V</t>
+        </is>
+      </c>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>M0V and M1V</t>
         </is>
       </c>
     </row>
@@ -5867,6 +6982,21 @@
           <t>PM*</t>
         </is>
       </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>G5IV-V</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>G5IV-V</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -5929,6 +7059,16 @@
           <t>PM*</t>
         </is>
       </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>M3e</t>
+        </is>
+      </c>
+      <c r="W82" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -5999,6 +7139,21 @@
           <t>PM*</t>
         </is>
       </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>G3V</t>
+        </is>
+      </c>
+      <c r="W83" t="inlineStr">
+        <is>
+          <t>G3V</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -6069,6 +7224,21 @@
           <t>PM*</t>
         </is>
       </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>G2V</t>
+        </is>
+      </c>
+      <c r="W84" t="inlineStr">
+        <is>
+          <t>G2V</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -6139,6 +7309,21 @@
           <t>PM*</t>
         </is>
       </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>F8V</t>
+        </is>
+      </c>
+      <c r="W85" t="inlineStr">
+        <is>
+          <t>F8V</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -6199,6 +7384,21 @@
           <t>PM*</t>
         </is>
       </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>F6IV-V</t>
+        </is>
+      </c>
+      <c r="W86" t="inlineStr">
+        <is>
+          <t>F6IV-V</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -6264,6 +7464,21 @@
           <t>PM*</t>
         </is>
       </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>K4</t>
+        </is>
+      </c>
+      <c r="W87" t="inlineStr">
+        <is>
+          <t>K4</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -6312,6 +7527,16 @@
           <t>PM*</t>
         </is>
       </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>K5:</t>
+        </is>
+      </c>
+      <c r="W88" t="inlineStr">
+        <is>
+          <t>K5</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -6415,6 +7640,11 @@
           <t>PM*</t>
         </is>
       </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>dM4.5</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -6490,6 +7720,21 @@
           <t>PM*</t>
         </is>
       </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>G0</t>
+        </is>
+      </c>
+      <c r="W91" t="inlineStr">
+        <is>
+          <t>G0</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -6608,6 +7853,21 @@
           <t>PM*</t>
         </is>
       </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>M0V</t>
+        </is>
+      </c>
+      <c r="W93" t="inlineStr">
+        <is>
+          <t>M0V</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -6660,6 +7920,16 @@
           <t>PM*</t>
         </is>
       </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>K0</t>
+        </is>
+      </c>
+      <c r="W94" t="inlineStr">
+        <is>
+          <t>K0</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -6790,6 +8060,11 @@
           <t>PM*</t>
         </is>
       </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -6988,6 +8263,21 @@
           <t>PM*</t>
         </is>
       </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>K0V</t>
+        </is>
+      </c>
+      <c r="W99" t="inlineStr">
+        <is>
+          <t>K0V</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -7026,6 +8316,9 @@
       <c r="J100" t="n">
         <v>40.33017348362118</v>
       </c>
+      <c r="K100" t="n">
+        <v>3560</v>
+      </c>
       <c r="L100" t="n">
         <v>0.5486286</v>
       </c>
@@ -7055,6 +8348,21 @@
           <t>PM*</t>
         </is>
       </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>SIMBAD + empirical</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>M2V</t>
+        </is>
+      </c>
+      <c r="W100" t="inlineStr">
+        <is>
+          <t>M2V</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -7123,6 +8431,21 @@
       <c r="T101" t="inlineStr">
         <is>
           <t>PM*</t>
+        </is>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>G1V</t>
+        </is>
+      </c>
+      <c r="W101" t="inlineStr">
+        <is>
+          <t>G1V</t>
         </is>
       </c>
     </row>
